--- a/private/concepts/seo/info_runes.xlsx
+++ b/private/concepts/seo/info_runes.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv1\private\concepts\seo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lolvvv\Assets\private\concepts\seo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA55AAED-CFCA-448F-AC9F-96368E073C3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4C05F6-7F7D-44F6-B5DA-66D98539CD18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22845" yWindow="4350" windowWidth="28800" windowHeight="15435" xr2:uid="{BC52FA20-11E6-4B36-B89D-5A3D3F644E90}"/>
+    <workbookView xWindow="615" yWindow="435" windowWidth="23415" windowHeight="20100" xr2:uid="{BC52FA20-11E6-4B36-B89D-5A3D3F644E90}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="213">
   <si>
     <t>Path</t>
   </si>
@@ -258,36 +261,6 @@
     <t>Tme Warp Tonic</t>
   </si>
   <si>
-    <t>Phase Rush offers more flexibility and options to weave in and out of danger, which can be helpful in this case since that's essentially [Champion]'s main playstyle.</t>
-  </si>
-  <si>
-    <t>This is usually followed up by taking Manaflow Band for additional mana and mana sustain,</t>
-  </si>
-  <si>
-    <t>Text (Primary Path)</t>
-  </si>
-  <si>
-    <t>Font of Life provides your botlaner with more sustain by healing them whenever they attack a champion whose movement you've recently impaired.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BonePlating make [Champion] overall tankier, by decreasing the amount of poke damage he takes and </t>
-  </si>
-  <si>
-    <t>Overgrowth increases your maximum amount of health.</t>
-  </si>
-  <si>
-    <t>Sudden Impact is seeing the most use in the next tier. This is due to how easy it is to use on [Champion] with the amount of ways he has to dash, blink or stealth. The additional lethality most certainly helps to take down the priority targets that much easier.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eyeball Collection is next up. This grants the user additional damage with every takedown they score. </t>
-  </si>
-  <si>
-    <t>Ravenous Hunter is the final rune for the Domination tree. This rune gives some sustain during skirmishes and small damagetrades. The additional health is nothing to scoff at, and can mean the difference between winning or losing a trade.</t>
-  </si>
-  <si>
-    <t>Cheap Shot makes you deal more damage to enemies with impaired movement, which has great synergy with [Champion]'s kit.</t>
-  </si>
-  <si>
     <t>Phase Rush, upon landing three separate attacks or abilities onto an enemy champion, grants the user a burst of movement speed. This is a great way of weaving in and out of danger during full scale fights, as well as giving your opponent less of an opportunity to trade damage back onto you in smaller skirmishes.</t>
   </si>
   <si>
@@ -297,27 +270,9 @@
     <t>Magical Footwork</t>
   </si>
   <si>
-    <t>Waterwalking grants movement speed in the river, which helps [Champion] get around the map quicker. The extra damage will also help in those all important dragon and baron fights.</t>
-  </si>
-  <si>
-    <t>Presence of Mind helps [Champion] with the mana problems by restoring mana and increasing [Champion]’s maximum mana pool.</t>
-  </si>
-  <si>
-    <t>Legend: Bloodline gives some much needed lifesteal, which aids in winning trades and all out fights later on.</t>
-  </si>
-  <si>
     <t>Magical Footwear allows more gold to be spent on core early items without having to worry about spending the extra 300g on boots. Biscuit Delivery grants sustain in lane, and also increases Lucian’s maximum mana pool like Presence of Mind.</t>
   </si>
   <si>
-    <t>It gives [Champion] a nice ramp up in team fights and allows to put out more damage in that time window.</t>
-  </si>
-  <si>
-    <t>Magical Footwear allows players to focus on those essential core items without the need to spend the additional 300 gold on boots.</t>
-  </si>
-  <si>
-    <t>Biscuit Delivery is a great rune for laning as it gives sustain to both health and mana, which can help in more aggressive lanes.</t>
-  </si>
-  <si>
     <t>Electrocute allows you to deal large chunks of burst damage and is the most consistent rune of the lot in most scenarios.</t>
   </si>
   <si>
@@ -327,27 +282,18 @@
     <t>Primary</t>
   </si>
   <si>
-    <t>It seems as though a majority of high Elo players, and our pros in the the major regions, have agreed that [keystone] is the best keystone rune to run on [Champion].</t>
-  </si>
-  <si>
     <t>secondary</t>
   </si>
   <si>
     <t>keystone</t>
   </si>
   <si>
-    <t>[Keystone] is [Champion] Maokai’s best and most commonly selected keystone.</t>
-  </si>
-  <si>
     <t>When it comes to the secondary rune page, there are several options.</t>
   </si>
   <si>
     <t>There is some discussion around the best secondary tree. This is usually personal preference, or changed depending on the opponent you’re facing.</t>
   </si>
   <si>
-    <t>Taking a look through the games that our pros have been playing in the offseason shows us that many of them think [Champion] is in a strong position. They also use fairly similar rune setups across the board with minor changes here and there. [Keystone] seems to be the go to keystone for [Champion].</t>
-  </si>
-  <si>
     <t>There seems to be a bit more variety when it comes to the secondary tree.</t>
   </si>
   <si>
@@ -357,178 +303,379 @@
     <t>There's one particular set of runes that is the clear favourite for players and pros alike.</t>
   </si>
   <si>
-    <t>The runes used on [Champion] are pretty unanimous among all pros, with some slight deviations depending on the enemy team comp.</t>
-  </si>
-  <si>
-    <t>When it comes to your secondary tree, most [Champion] players prefer to go with [Secondary].</t>
-  </si>
-  <si>
     <t>[Secondary]is the go-to secondary tree for [S-Slot1] and [S-Slot2].</t>
   </si>
   <si>
-    <t>This keystone rune provides additional power in the later stages of a game. As soon as Conqueror is fully stacked, [Champion] deals additional damage and gains lifesteal.</t>
-  </si>
-  <si>
     <t>Cut Down</t>
   </si>
   <si>
-    <t>With Last Stand you deal more damage while you are at low health.</t>
-  </si>
-  <si>
-    <t>Overheal converts healing in excess of [Champion]'s maximum health into a shield, which provides additional safty and tankiness.</t>
-  </si>
-  <si>
-    <t>Triumph restores with Takedowns a part of [Champion]'s missing health and award bonus gold.</t>
-  </si>
-  <si>
-    <t>[Champion] gains additional Tenacity with every stack of Legend: Tenacity.</t>
-  </si>
-  <si>
-    <t>This keystone gives you additional damage throughout the match.</t>
-  </si>
-  <si>
-    <t>Taste of Blood heals [Champion] as soon as you damage an opposing champion.</t>
-  </si>
-  <si>
-    <t>Zombie Ward helps you to expand your vision on the map. Vision is very impactful in League of Legends and helps you to avoid unnecessary deaths.</t>
-  </si>
-  <si>
-    <t>Ghost Poro helps you to keep your vision on the map for a longer period of time. Vision is very impactful in League of Legends and helps you to avoid unnecessary deaths.</t>
-  </si>
-  <si>
-    <t>Absolute Focus grants additional damage while [Champion] is alomst full health.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This keystone gives [champion] alot of sustain and helps to force your 
-opposing champion out of the lane. </t>
-  </si>
-  <si>
-    <t>Shield Bash powers up your tankiness and empowers your next basic attack while shielded.</t>
-  </si>
-  <si>
-    <t>Conditioning powers up [Champion] tankiness after the laning phase.</t>
-  </si>
-  <si>
-    <t>Second wind powers up your sustainablity in lane by healing  after taking damanage from an enemy champion.</t>
-  </si>
-  <si>
-    <t>Revitalize inceases heals and shields you cast or receive.</t>
-  </si>
-  <si>
-    <t>Unflinching inceases [Champion] tenacity based on your missing health.</t>
-  </si>
-  <si>
-    <t>This keystone rune slows enemy champion by your first basic attack. This slow can by followed up by a skill shot of [champion] to force the opponent in a dangerous situation.</t>
-  </si>
-  <si>
-    <t>Cosmic Insight grants summoner spell and item haste.</t>
-  </si>
-  <si>
-    <t>You will receive a Perfectly Timed Stopwatch for free, which can cause a moment of surprise for your enemy team.</t>
-  </si>
-  <si>
-    <t>You can enter debt to buy items, which is displayed as negative gold in your treasury.
-A small lending fee is added onto the amount of gold you owe after leaving the shop.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minion Dematerializer will help you to control the stage of the minion wave. </t>
-  </si>
-  <si>
-    <t>[Champion] gains bonus movement speed by Approach Velocity, while moving toward enemy champions that are immobilized or slowed. This rune is perfect to follow up engages by your teammates</t>
-  </si>
-  <si>
-    <t>Tme Warp Tonic gives you additional sustain by boosting your potions and biscuits.</t>
-  </si>
-  <si>
-    <t>This keystone rune allows you to create a one-time use summoner spell. The new summoner spell replaces one of their current summoner spells and remains available until it is used or replaced. Unsealed Spellbook has some unique rules in that a particular summoner spell cannot be selected again until three other unique spells have been taken.
-League of Legends proplayers will often use Unsealed Spellbook to aid them in their current or upcoming situation. Are you about to fight the last dragon for a soul buff? Due to Unsealed Spellbook, [Champion] can pick up Smite to help their jungler secure the dragon for the team. There are numberless circumstances where a particular summoner spell can turn the game on its head, and that's where Unsealed Spellbook shines the most.</t>
-  </si>
-  <si>
-    <t>improves [Champion]'s attacks and sustained damage troughout the match.</t>
-  </si>
-  <si>
-    <t>improves [Champion]'s burst damage and assassination tools.</t>
-  </si>
-  <si>
-    <t>empoweres [Champion]'s abilities and increases the poll of resources.</t>
-  </si>
-  <si>
-    <t>empowers [Champion]'s durability and increases the tankiness.</t>
-  </si>
-  <si>
-    <t>opens creative opportunities troughout the match.</t>
-  </si>
-  <si>
-    <t>[Champion] has a very easy time activating this rune with basic attacks which synergises well with Press the Attack’s damage increase once activated.</t>
-  </si>
-  <si>
-    <t>This keystone rune is for the burst damage it can provide, aiding them in nuking down their carries.</t>
-  </si>
-  <si>
-    <t>This keystone helps you to win short trades in your lane by increasing your attackspeed at the beginning of a skirmish.</t>
-  </si>
-  <si>
-    <t>Nullifying Orb grants you a shield, as soon as [champions] gets taking low by magic damage. This rune will help you alot to survive against bursty ability power champions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This keystone rune grants a shield to your teammate and towards your own, as soon as one of you gets damage by an enemy champion. </t>
-  </si>
-  <si>
-    <t>This keystone periodically grants a single use of another random keystone. After not using the given keystone, another random keystone is granted while out of combat. Entering the spawn point will re-roll the current keystone. A lot of diffent keystone runes fit to [Champion] kit, this the reason why Prototype: Omnistone is a great choice.</t>
-  </si>
-  <si>
     <t>This keystone rune generates you a lot of sustain and increases your survivability against poke champions in lane.</t>
   </si>
   <si>
-    <t xml:space="preserve">Legend: Alacrity grants additional attackspeed to [Champion]. </t>
-  </si>
-  <si>
-    <t>With Coup de Grace [Champion] deals more damage to targets with low health.</t>
-  </si>
-  <si>
-    <t>If the enemy Team consists of multiple tanks, Cut Down is the best rune choice.</t>
-  </si>
-  <si>
-    <t>As soon as you buy boots, you can use the active of Predator. After a short casttime [champion] gains bonus movement speed, while moving toward enemy champions. This keystone rune is perfect for roaming and ganking.</t>
-  </si>
-  <si>
-    <t>Relentless Hunter increases your movementspeed out of combat by every unique champion takedown.</t>
-  </si>
-  <si>
-    <t>Ingenious Hunter gives you item haste by every unique champion takedown.</t>
-  </si>
-  <si>
-    <t>Ultimate Hunter scales up [champion] ultimate haste by every unique champion takedown.</t>
-  </si>
-  <si>
-    <t>This keystone rune adds more pokedamage to your abilities. And additionally grants an extra shield, whenever [champion] empowers or protects an ally with abilities.</t>
-  </si>
-  <si>
     <t>This keystone rune adds more damage to your abilities and increases your power in the laning phase.</t>
   </si>
   <si>
-    <t>Nimbus Cloak, which grants movement speed upon casting a Summoner Spell, works amazingly well with junglers in particular as they take the shortest cooldown Summoner Spell, Smite.</t>
-  </si>
-  <si>
-    <t>Transcendence for some more Ability Haste.</t>
-  </si>
-  <si>
-    <t>Celerity boosts all Movement speed bonuses to [Champion].</t>
-  </si>
-  <si>
-    <t>Sorch increases your early game control.</t>
-  </si>
-  <si>
-    <t>Gathering Storm increases your late game insurance.</t>
-  </si>
-  <si>
-    <t>This keystone rune bulks you up, increasing both armour and magic resistance, whenever you immobilize a champion. This keystone synergises both with the sheer amount of crowd control [Champion] possesses and the need to be tanky as soon as you engage.</t>
-  </si>
-  <si>
-    <t>Demolish increases your pressure on the enemy turrets. This keystone rune will help you to punish bad roams or backtimings of your lane opponent.</t>
-  </si>
-  <si>
-    <t>Having an extra way to close the gap with the Hextech Flashtraption will make an engage much easier to pull off</t>
+    <t>This keystone rune slows enemy champion by your first basic attack. This slow can by followed up by a skill shot of {championName} to force the opponent in a dangerous situation.</t>
+  </si>
+  <si>
+    <t>The runes used on {championName} are pretty unanimous among all pros, with some slight deviations depending on the enemy team comp.</t>
+  </si>
+  <si>
+    <t>When it comes to your secondary tree, most {championName} players prefer to go with [Secondary].</t>
+  </si>
+  <si>
+    <t>It seems as though a majority of high Elo players, and our pros in the the major regions, have agreed that [keystone] is the best keystone rune to run on {championName}.</t>
+  </si>
+  <si>
+    <t>[Keystone] is {championName} Maokai’s best and most commonly selected keystone.</t>
+  </si>
+  <si>
+    <t>Taking a look through the games that our pros have been playing in the offseason shows us that many of them think {championName} is in a strong position. They also use fairly similar rune setups across the board with minor changes here and there. [Keystone] seems to be the go to keystone for {championName}.</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>PressTheAttack</t>
+  </si>
+  <si>
+    <t>LethalTempo</t>
+  </si>
+  <si>
+    <t>FleetFootwork</t>
+  </si>
+  <si>
+    <t>PresenceOfMind</t>
+  </si>
+  <si>
+    <t>LegendAlacrity</t>
+  </si>
+  <si>
+    <t>LegendTenacity</t>
+  </si>
+  <si>
+    <t>LegendBloodline</t>
+  </si>
+  <si>
+    <t>CoupDeGrace</t>
+  </si>
+  <si>
+    <t>CutDown</t>
+  </si>
+  <si>
+    <t>LastStand</t>
+  </si>
+  <si>
+    <t>RelentlessHunter</t>
+  </si>
+  <si>
+    <t>UltimateHunter</t>
+  </si>
+  <si>
+    <t>GhostPoro</t>
+  </si>
+  <si>
+    <t>EyeballCollection</t>
+  </si>
+  <si>
+    <t>RavenousHunter</t>
+  </si>
+  <si>
+    <t>IngeniousHunter</t>
+  </si>
+  <si>
+    <t>CheapShot</t>
+  </si>
+  <si>
+    <t>SuddenImpact</t>
+  </si>
+  <si>
+    <t>ZombieWard</t>
+  </si>
+  <si>
+    <t>DarkHarvest</t>
+  </si>
+  <si>
+    <t>TasteOfBlood</t>
+  </si>
+  <si>
+    <t>SummonAery</t>
+  </si>
+  <si>
+    <t>ArcaneComet</t>
+  </si>
+  <si>
+    <t>PhaseRush</t>
+  </si>
+  <si>
+    <t>NullifyingOrb</t>
+  </si>
+  <si>
+    <t>ManaflowBand</t>
+  </si>
+  <si>
+    <t>NimbusCloak</t>
+  </si>
+  <si>
+    <t>AbsoluteFocus</t>
+  </si>
+  <si>
+    <t>GatheringStorm</t>
+  </si>
+  <si>
+    <t>MagicalFootwear</t>
+  </si>
+  <si>
+    <t>PerfectTiming</t>
+  </si>
+  <si>
+    <t>MinionDematerializer</t>
+  </si>
+  <si>
+    <t>BiscuitDelivery</t>
+  </si>
+  <si>
+    <t>CosmicInsight</t>
+  </si>
+  <si>
+    <t>ApproachVelocity</t>
+  </si>
+  <si>
+    <t>HextechFlashtraption</t>
+  </si>
+  <si>
+    <t>FuturesMarket</t>
+  </si>
+  <si>
+    <t>GlacialAugment</t>
+  </si>
+  <si>
+    <t>UnsealedSpellbook</t>
+  </si>
+  <si>
+    <t>TimeWarpTonic</t>
+  </si>
+  <si>
+    <t>MasterKey</t>
+  </si>
+  <si>
+    <t>GraspOfTheUndying</t>
+  </si>
+  <si>
+    <t>FontOfLife</t>
+  </si>
+  <si>
+    <t>ShieldBash</t>
+  </si>
+  <si>
+    <t>SecondWind</t>
+  </si>
+  <si>
+    <t>BonePlating</t>
+  </si>
+  <si>
+    <t>HailOfBlades</t>
+  </si>
+  <si>
+    <t>This keystone rune adds more poke damage to your abilities. And additionally grants an extra shield, whenever {championName} empowers or protects an ally with abilities.</t>
+  </si>
+  <si>
+    <t>{Overheal} converts healing in excess of maximum health of  {championName} into a shield, which provides additional safty and tankiness.</t>
+  </si>
+  <si>
+    <t>{PresenceOfMind} helps {championName} with the mana problems by restoring mana and increasing maximum mana pool of {championName}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{LegendAlacrity} grants additional attack speed to {championName}. </t>
+  </si>
+  <si>
+    <t>{championName} gains additional Tenacity with every stack of {LegendTenacity}.</t>
+  </si>
+  <si>
+    <t>With {LastStand} you deal more damage while you are at low health.</t>
+  </si>
+  <si>
+    <t>{TasteOfBlood} heals {championName} as soon as you damage an opposing champion.</t>
+  </si>
+  <si>
+    <t>{ZombieWard} helps you to expand your vision on the map. Vision is very impactful in LoL and helps you to avoid unnecessary deaths.</t>
+  </si>
+  <si>
+    <t>{GhostPoro} helps you to keep your vision on the map for a longer period of time. Vision is very impactful in LoL and helps you to avoid unnecessary deaths.</t>
+  </si>
+  <si>
+    <t>This is usually followed up by taking {ManaflowBand} for additional mana and mana sustain.</t>
+  </si>
+  <si>
+    <t>{Transcendence} for some more Ability Haste.</t>
+  </si>
+  <si>
+    <t>{Waterwalking} grants movement speed in the river, which helps {championName} get around the map quicker. The extra damage will also help in those all important dragon and baron fights.</t>
+  </si>
+  <si>
+    <t>{GatheringStorm} increases your late game insurance.</t>
+  </si>
+  <si>
+    <t>{Demolish} increases your pressure on the enemy turrets. This keystone rune will help you to punish bad roams or backtimings of your lane opponent.</t>
+  </si>
+  <si>
+    <t>{FontOfLife} provides your botlaner with more sustain by healing them whenever they attack a champion whose movement you've recently impaired.</t>
+  </si>
+  <si>
+    <t>{ShieldBash} powers up your tankiness and empowers your next basic attack while shielded.</t>
+  </si>
+  <si>
+    <t>{Conditioning} powers up {championName} tankiness after the laning phase.</t>
+  </si>
+  <si>
+    <t>{SecondWind} powers up your sustainablity in lane by healing  after taking damage from an enemy champion.</t>
+  </si>
+  <si>
+    <t>{Overgrowth} increases your maximum amount of health.</t>
+  </si>
+  <si>
+    <t>{Revitalize} inceases heals and shields you cast or receive.</t>
+  </si>
+  <si>
+    <t>{MagicalFootwear} allows players to focus on those essential core items without the need to spend the additional 300 gold on boots.</t>
+  </si>
+  <si>
+    <t>You will receive a {Item2423} for free, which can cause a moment of surprise for your enemy team.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{MinionDematerializer} will help you to control the stage of the minion wave. </t>
+  </si>
+  <si>
+    <t>{BiscuitDelivery} is a great rune for laning as it gives sustain to both health and mana, which can help in more aggressive lanes.</t>
+  </si>
+  <si>
+    <t>{CosmicInsight} grants summoner spell and item haste.</t>
+  </si>
+  <si>
+    <t>{NimbusCloak}, which grants movement speed upon casting a summoner spell, works amazingly well with junglers in particular as they take the shortest cooldown summoner spell, {SummonerSmite}.</t>
+  </si>
+  <si>
+    <t>This keystone rune allows you to create a one-time use summoner spell. The new summoner spell replaces one of their current summoner spells and remains available until it is used or replaced. {UnsealedSpellbook} has some unique rules in that a particular summoner spell cannot be selected again until three other unique spells have been taken. LoL pro players will often use {UnsealedSpellbook} to aid them in their current or upcoming situation. Are you about to fight the last dragon for a soul buff? Due to {UnsealedSpellbook}, {championName} can pick up {SummonerSmite} to help their jungler secure the dragon for the team. There are numberless circumstances where a particular summoner spell can turn the game on its head, and that's where {UnsealedSpellbook} shines the most.</t>
+  </si>
+  <si>
+    <t>{TimeWarpTonic} gives you additional sustain by boosting your potions and biscuits.</t>
+  </si>
+  <si>
+    <t>{Unflinching} inceases {championName} tenacity based on your missing health.</t>
+  </si>
+  <si>
+    <t>{Celerity} boosts all movement speed bonuses to {championName}.</t>
+  </si>
+  <si>
+    <t>{AbsoluteFocus} grants additional damage while {championName} is alomst full health.</t>
+  </si>
+  <si>
+    <t>{Scorch} increases your early game control.</t>
+  </si>
+  <si>
+    <t>{Precision} improves attack and sustained damage on {championName} troughout the match.</t>
+  </si>
+  <si>
+    <t>{Domination} improves burst damage and assassination tools on {championName}.</t>
+  </si>
+  <si>
+    <t>{Sorcery} empoweres abilities of {championName} and increases the available champion resources.</t>
+  </si>
+  <si>
+    <t>{Resolve} empowers the durability of {championName} and increases the tankiness.</t>
+  </si>
+  <si>
+    <t>{Inspiration} opens creative opportunities on {championName} troughout the match.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{BonePlating} make {championName} overall tankier, by decreasing the amount of poke damage in the early game. </t>
+  </si>
+  <si>
+    <t>{championName} gains bonus movement speed by {ApproachVelocity}, while moving toward enemy champions that are immobilized or slowed. This rune is perfect to follow up engages by your teammates.</t>
+  </si>
+  <si>
+    <t>You can enter debt to buy items, which is displayed as negative gold in your treasury. A small lending fee is added onto the amount of gold you owe after leaving the shop.</t>
+  </si>
+  <si>
+    <t>Having an extra way to close the gap with the {HextechFlashtraption} will make an engage much easier to pull off.</t>
+  </si>
+  <si>
+    <t>{championName} has a very easy time activating this rune with basic attacks which synergises well with {PressTheAttack}’s damage increase once activated.</t>
+  </si>
+  <si>
+    <t>{championName} deals with {CoupDeGrace} more damage to targets with low health.</t>
+  </si>
+  <si>
+    <t>As soon as you buy boots, you can use the active of {Predator}. After a short cast time {championName} gains bonus movement speed, while moving toward enemy champions. This keystone rune is perfect for roaming and ganking.</t>
+  </si>
+  <si>
+    <t>{CheapShot} makes you deal more damage to enemies with impaired movement, which has great synergy with the setup of {championName}.</t>
+  </si>
+  <si>
+    <t>This keystone rune provides additional power in the later stages of a game. As soon as {Conqueror} is fully stacked, {championName} deals additional damage and gains lifesteal.</t>
+  </si>
+  <si>
+    <t>It gives {championName} a nice head start in team fights and allows to put out more damage in that time window.</t>
+  </si>
+  <si>
+    <t>{Triumph} restores on {championName} a part of missing health and award bonus gold, if a champion is killed.</t>
+  </si>
+  <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>{LegendBloodline} gives life steal, which aids in winning trades and fights later on.</t>
+  </si>
+  <si>
+    <t>If the enemy team consists of multiple tanks, then {CutDown} is the best rune choice.</t>
+  </si>
+  <si>
+    <t>This keystone rune provides burst damage, aiding them in nuking down the enemy carries.</t>
+  </si>
+  <si>
+    <t>This keystone rune gives you additional damage throughout the match.</t>
+  </si>
+  <si>
+    <t>This keystone rune helps you to win short trades in your lane by increasing your attackspeed at the beginning of a skirmish.</t>
+  </si>
+  <si>
+    <t>{SuddenImpact} is seeing the most use in the next tier. This is due to how easy it is to use on {championName} with the amount of ways he has to dash, blink or stealth. The additional lethality helps to take down the priority targets that much easier.</t>
+  </si>
+  <si>
+    <t>{EyeballCollection} is next up. This grants the user additional damage with every killing they score.</t>
+  </si>
+  <si>
+    <t>{RavenousHunter} is the final rune on the {Domination} tree. This rune gives some sustain during skirmishes and small damage trades. The additional health is nothing to scoff at and can mean the difference between winning or losing a trade.</t>
+  </si>
+  <si>
+    <t>{RelentlessHunter} increases your movement speed out of combat on every unique champion takedown.</t>
+  </si>
+  <si>
+    <t>{UltimateHunter} scales up {championName} ultimate haste on every unique champion takedown.</t>
+  </si>
+  <si>
+    <t>{IngeniousHunter} gives you item haste on every unique champion takedown.</t>
+  </si>
+  <si>
+    <t>{PhaseRush} offers more flexibility and options to weave in and out of danger, which can be helpful since that's essentially the main playstyle of {championName}.</t>
+  </si>
+  <si>
+    <t>{NullifyingOrb} grants you a shield, as soon as {championName} gets taking low by magic damage. This rune will help you alot to survive against ability power champions with a lot of burst.</t>
+  </si>
+  <si>
+    <t>This keystone rune grants a shield to your teammate and towards your own, as soon as one of you gets damage by an enemy champion.</t>
+  </si>
+  <si>
+    <t>This keystone rune gives {championName} alot of sustain and helps to force your opposing champion out of the lane.</t>
+  </si>
+  <si>
+    <t>This keystone rune bulks you up, increasing both armour and magic resistance, whenever you immobilize a champion. {Aftershock} synergises both with the sheer amount of crowd control {championName} possesses and the need to be tanky as soon as you engage.</t>
+  </si>
+  <si>
+    <t>This keystone rune periodically grants a single use of another random keystone rune. After not using the given keystone rune, another random keystone rune is granted while out of combat. Entering the spawn point will re-roll the current keystone rune. A lot of diffent keystone runes fit to {championName} setup, this the reason why {MasterKey} is a great choice.</t>
   </si>
 </sst>
 </file>
@@ -566,18 +713,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -672,17 +813,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -711,17 +848,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1037,21 +1174,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB044E1-ECAA-4202-86E8-12B2975F182C}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="56" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="75.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="56" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1061,12 +1201,18 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1076,12 +1222,18 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>8005</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1091,12 +1243,18 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3">
+        <v>8008</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1106,12 +1264,18 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4">
+        <v>8021</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1121,12 +1285,18 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>8010</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1136,11 +1306,17 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>9101</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1150,11 +1326,17 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>9111</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1164,11 +1346,17 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8">
+        <v>8009</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1178,11 +1366,17 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9">
+        <v>9104</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1192,11 +1386,17 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10">
+        <v>9105</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1206,11 +1406,17 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11">
+        <v>9103</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1220,11 +1426,17 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12">
+        <v>8014</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1232,13 +1444,19 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13">
+        <v>8017</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1248,15 +1466,38 @@
       <c r="C14" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14">
+        <v>8299</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>8112</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1264,14 +1505,20 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>8124</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1279,14 +1526,20 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17">
+        <v>8128</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1294,29 +1547,41 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18">
+        <v>9923</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19">
+        <v>8126</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1324,14 +1589,19 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20">
+        <v>8139</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1339,27 +1609,39 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>8143</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22">
+        <v>8136</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1367,13 +1649,19 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23">
+        <v>8120</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1381,27 +1669,39 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24">
+        <v>8138</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25">
+        <v>8135</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1409,13 +1709,19 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26">
+        <v>8134</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1423,13 +1729,20 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27">
+        <v>8105</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1437,32 +1750,61 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28">
+        <v>8106</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29">
+        <v>8214</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E30">
+        <v>8229</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1470,44 +1812,61 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31">
+        <v>8230</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32">
+        <v>8224</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33">
+        <v>8226</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1515,42 +1874,59 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34">
+        <v>8275</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35">
+        <v>8210</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36">
+        <v>8234</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1558,41 +1934,59 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37">
+        <v>8233</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38">
+        <v>8237</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39">
+        <v>8232</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1600,696 +1994,888 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40">
+        <v>8236</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41">
+        <v>8437</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42">
+        <v>8439</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43">
+        <v>8465</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44">
+        <v>8446</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45">
+        <v>8463</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46">
+        <v>8401</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="D47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47">
+        <v>8429</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48">
+        <v>8444</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D49" t="s">
+        <v>145</v>
+      </c>
+      <c r="E49">
+        <v>8473</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50">
+        <v>8451</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51">
+        <v>8453</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52">
+        <v>8242</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D53" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53">
+        <v>8351</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D54" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54">
+        <v>8360</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D55" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55">
+        <v>8358</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56">
+        <v>8306</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E57" s="9"/>
-    </row>
-    <row r="58" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D57" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57">
+        <v>8304</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" s="9"/>
-    </row>
-    <row r="59" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D58" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58">
+        <v>8313</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E59" s="9"/>
-    </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59">
+        <v>8321</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="D60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E60">
+        <v>8316</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D61" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61">
+        <v>8345</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="D62" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62">
+        <v>8347</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D63" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63">
+        <v>8410</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>69</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="D64" t="s">
+        <v>139</v>
+      </c>
+      <c r="E64">
+        <v>8352</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>8000</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>8100</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>8200</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>8400</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>11</v>
       </c>
-      <c r="B65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" s="6" t="s">
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>8300</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A76" s="9"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="12"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="14"/>
+    </row>
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="12"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="12"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="14"/>
+    </row>
+    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="12"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="12"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="14"/>
+    </row>
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="12"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="12"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="14"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="12"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="14"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="12"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="14"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="12"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="14"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" s="21"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="14"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="12"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="14"/>
+    </row>
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="12"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" t="s">
-        <v>73</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D81" s="13" t="s">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="12"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="14"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="12"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="14"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="16"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="14"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="12"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="14"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="12"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="14"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="12"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="14"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="12"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="16"/>
-    </row>
-    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="12"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="12"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="12"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="12"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="14"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="12"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="14"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="12"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="14"/>
+    </row>
+    <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="12"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="12"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="17"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D83" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="16"/>
-    </row>
-    <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="16"/>
-    </row>
-    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="16"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="16"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="16"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="16"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" s="19"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="16"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="16"/>
-    </row>
-    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="14"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="16"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="16"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="20"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="16"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="16"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="16"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="16"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="14"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="16"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="16"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="16"/>
-    </row>
-    <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="14"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="21"/>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="23" t="s">
-        <v>105</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{3E3216C5-E54F-46D0-A466-CA3CA73BFCCA}"/>
   <mergeCells count="1">
-    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A87:B87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
